--- a/Documents/Akurasi Train.xlsx
+++ b/Documents/Akurasi Train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tugas-Akhir\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE313D86-346D-43BB-A675-14DE91E8ECE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D61B6-AD64-4E5A-84F7-D81C4D4134EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{A5B1CD60-73A7-4347-8829-366689E28FD4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>Blocksize 4</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t xml:space="preserve"> K = 70</t>
+  </si>
+  <si>
+    <t>Blocksize [2 2]</t>
+  </si>
+  <si>
+    <t>Patchsize [40 44]</t>
   </si>
 </sst>
 </file>
@@ -85,8 +91,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.E+00"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -363,18 +369,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -695,19 +701,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6AFB22-F032-4202-BC26-84EC7CA8BD4B}">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="9" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1486,6 +1492,141 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9</v>
+      </c>
+      <c r="L33" s="1">
+        <v>10</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="20">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="D34" s="20">
+        <v>95.833299999999994</v>
+      </c>
+      <c r="E34" s="20">
+        <v>94.166700000000006</v>
+      </c>
+      <c r="F34" s="20">
+        <v>98.888900000000007</v>
+      </c>
+      <c r="G34" s="20">
+        <v>96.388900000000007</v>
+      </c>
+      <c r="H34" s="20">
+        <v>98.333299999999994</v>
+      </c>
+      <c r="I34" s="20">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="J34" s="20">
+        <v>98.333299999999994</v>
+      </c>
+      <c r="K34" s="20">
+        <v>95.277799999999999</v>
+      </c>
+      <c r="L34" s="20">
+        <v>98.888900000000007</v>
+      </c>
+      <c r="M34" s="19">
+        <f>SUM(C34:L34)/10</f>
+        <v>97.166669999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Akurasi Train.xlsx
+++ b/Documents/Akurasi Train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tugas-Akhir\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D61B6-AD64-4E5A-84F7-D81C4D4134EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F2BB07-10AF-4895-BBD0-F26C6117C3AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{A5B1CD60-73A7-4347-8829-366689E28FD4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>Blocksize 4</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Patchsize [40 44]</t>
+  </si>
+  <si>
+    <t>kmeans, K = 80</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6AFB22-F032-4202-BC26-84EC7CA8BD4B}">
-  <dimension ref="A2:M37"/>
+  <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +716,7 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
@@ -839,7 +843,7 @@
         <v>67.222200000000001</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" ref="M5:M6" si="0">SUM(C5:L5)/10</f>
+        <f>SUM(C5:L5)/10</f>
         <v>65.388889999999989</v>
       </c>
     </row>
@@ -881,7 +885,7 @@
         <v>64.444400000000002</v>
       </c>
       <c r="M6" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:L6)/10</f>
         <v>66.472219999999993</v>
       </c>
     </row>
@@ -1024,7 +1028,7 @@
         <v>73.888900000000007</v>
       </c>
       <c r="M11" s="19">
-        <f t="shared" ref="M11:M12" si="1">SUM(C11:L11)/10</f>
+        <f>SUM(C11:L11)/10</f>
         <v>78.361100000000008</v>
       </c>
     </row>
@@ -1066,7 +1070,7 @@
         <v>79.166700000000006</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:L12)/10</f>
         <v>82.527779999999979</v>
       </c>
     </row>
@@ -1188,7 +1192,7 @@
       <c r="L17" s="18"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>13</v>
       </c>
@@ -1323,7 +1327,7 @@
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1462,7 @@
       <c r="L29" s="18"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>13</v>
       </c>
@@ -1593,7 +1597,7 @@
       <c r="L35" s="18"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>13</v>
       </c>
@@ -1627,6 +1631,161 @@
       <c r="L37" s="9"/>
       <c r="M37" s="10"/>
     </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9</v>
+      </c>
+      <c r="L39" s="1">
+        <v>10</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11">
+        <v>93.166700000000006</v>
+      </c>
+      <c r="D40" s="11">
+        <v>89.666700000000006</v>
+      </c>
+      <c r="E40" s="11">
+        <v>93.333299999999994</v>
+      </c>
+      <c r="F40" s="11">
+        <v>96.333299999999994</v>
+      </c>
+      <c r="G40" s="11">
+        <v>93.666700000000006</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12">
+        <f>SUM(C40:L40)/10</f>
+        <v>46.616669999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="18">
+        <v>91.5</v>
+      </c>
+      <c r="D41" s="18">
+        <v>88.833299999999994</v>
+      </c>
+      <c r="E41" s="18">
+        <v>90.666700000000006</v>
+      </c>
+      <c r="F41" s="18">
+        <v>92.833299999999994</v>
+      </c>
+      <c r="G41" s="18">
+        <v>91.5</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19">
+        <f>SUM(C41:L41)/10</f>
+        <v>45.533329999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="14">
+        <v>94</v>
+      </c>
+      <c r="D42" s="14">
+        <v>91.666700000000006</v>
+      </c>
+      <c r="E42" s="14">
+        <v>94.833299999999994</v>
+      </c>
+      <c r="F42" s="14">
+        <v>97</v>
+      </c>
+      <c r="G42" s="14">
+        <v>94.5</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15">
+        <f>SUM(C42:L42)/10</f>
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
